--- a/debug/ONDO_debug.xlsx
+++ b/debug/ONDO_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD194"/>
+  <dimension ref="A1:AE194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -568,20 +568,25 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>Stop_Loss</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>cutoff_price</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_name</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_price</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>next_buy_trigger_price</t>
         </is>
@@ -671,17 +676,20 @@
         <v>0.194607</v>
       </c>
       <c r="AA2" t="n">
-        <v/>
-      </c>
-      <c r="AB2" t="inlineStr">
+        <v>0.176073</v>
+      </c>
+      <c r="AB2" t="n">
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.194607</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.8643999999999999</v>
       </c>
     </row>
@@ -769,17 +777,20 @@
         <v>0.194754</v>
       </c>
       <c r="AA3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
+        <v>0.176206</v>
+      </c>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.194754</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>0.8384</v>
       </c>
     </row>
@@ -867,17 +878,20 @@
         <v>0.194754</v>
       </c>
       <c r="AA4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="inlineStr">
+        <v>0.176206</v>
+      </c>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>0.194754</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>0.8449</v>
       </c>
     </row>
@@ -965,17 +979,20 @@
         <v>0.194754</v>
       </c>
       <c r="AA5" t="n">
-        <v/>
-      </c>
-      <c r="AB5" t="inlineStr">
+        <v>0.176206</v>
+      </c>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>0.194754</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>0.8278</v>
       </c>
     </row>
@@ -1063,17 +1080,20 @@
         <v>0.194754</v>
       </c>
       <c r="AA6" t="n">
-        <v/>
-      </c>
-      <c r="AB6" t="inlineStr">
+        <v>0.176206</v>
+      </c>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>0.194754</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>0.8022</v>
       </c>
     </row>
@@ -1161,17 +1181,20 @@
         <v>0.194754</v>
       </c>
       <c r="AA7" t="n">
-        <v/>
-      </c>
-      <c r="AB7" t="inlineStr">
+        <v>0.176206</v>
+      </c>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>0.194754</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>0.8174</v>
       </c>
     </row>
@@ -1259,17 +1282,20 @@
         <v>0.194754</v>
       </c>
       <c r="AA8" t="n">
-        <v/>
-      </c>
-      <c r="AB8" t="inlineStr">
+        <v>0.176206</v>
+      </c>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>0.194754</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>0.8218</v>
       </c>
     </row>
@@ -1357,17 +1383,20 @@
         <v>0.194754</v>
       </c>
       <c r="AA9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="inlineStr">
+        <v>0.176206</v>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>0.194754</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>0.8288</v>
       </c>
     </row>
@@ -1455,17 +1484,20 @@
         <v>0.194754</v>
       </c>
       <c r="AA10" t="n">
-        <v/>
-      </c>
-      <c r="AB10" t="inlineStr">
+        <v>0.176206</v>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>0.194754</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>0.8199</v>
       </c>
     </row>
@@ -1553,17 +1585,20 @@
         <v>0.194754</v>
       </c>
       <c r="AA11" t="n">
-        <v/>
-      </c>
-      <c r="AB11" t="inlineStr">
+        <v>0.176206</v>
+      </c>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>0.194754</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>0.8357</v>
       </c>
     </row>
@@ -1651,17 +1686,20 @@
         <v>0.194754</v>
       </c>
       <c r="AA12" t="n">
-        <v/>
-      </c>
-      <c r="AB12" t="inlineStr">
+        <v>0.176206</v>
+      </c>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>0.194754</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>0.8365</v>
       </c>
     </row>
@@ -1749,17 +1787,20 @@
         <v>0.200172</v>
       </c>
       <c r="AA13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="inlineStr">
+        <v>0.181108</v>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>0.200172</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>0.9033</v>
       </c>
     </row>
@@ -1847,17 +1888,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA14" t="n">
-        <v/>
-      </c>
-      <c r="AB14" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>0.8663</v>
       </c>
     </row>
@@ -1945,17 +1989,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA15" t="n">
-        <v/>
-      </c>
-      <c r="AB15" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>0.9429</v>
       </c>
     </row>
@@ -2043,17 +2090,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA16" t="n">
-        <v/>
-      </c>
-      <c r="AB16" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>0.9841</v>
       </c>
     </row>
@@ -2141,17 +2191,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA17" t="n">
-        <v/>
-      </c>
-      <c r="AB17" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB17" t="n">
+        <v/>
+      </c>
+      <c r="AC17" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>0.9349</v>
       </c>
     </row>
@@ -2239,17 +2292,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA18" t="n">
-        <v/>
-      </c>
-      <c r="AB18" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB18" t="n">
+        <v/>
+      </c>
+      <c r="AC18" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>0.9139</v>
       </c>
     </row>
@@ -2337,17 +2393,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA19" t="n">
-        <v/>
-      </c>
-      <c r="AB19" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB19" t="n">
+        <v/>
+      </c>
+      <c r="AC19" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>0.9184</v>
       </c>
     </row>
@@ -2435,17 +2494,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA20" t="n">
-        <v/>
-      </c>
-      <c r="AB20" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB20" t="n">
+        <v/>
+      </c>
+      <c r="AC20" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="n">
         <v>0.8741</v>
       </c>
     </row>
@@ -2533,17 +2595,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA21" t="n">
-        <v/>
-      </c>
-      <c r="AB21" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB21" t="n">
+        <v/>
+      </c>
+      <c r="AC21" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AE21" t="n">
         <v>0.9028</v>
       </c>
     </row>
@@ -2631,17 +2696,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA22" t="n">
-        <v/>
-      </c>
-      <c r="AB22" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB22" t="n">
+        <v/>
+      </c>
+      <c r="AC22" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
         <v>0.8911</v>
       </c>
     </row>
@@ -2729,17 +2797,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA23" t="n">
-        <v/>
-      </c>
-      <c r="AB23" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB23" t="n">
+        <v/>
+      </c>
+      <c r="AC23" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
         <v>0.8681</v>
       </c>
     </row>
@@ -2827,17 +2898,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA24" t="n">
-        <v/>
-      </c>
-      <c r="AB24" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB24" t="n">
+        <v/>
+      </c>
+      <c r="AC24" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AE24" t="n">
         <v>0.8512999999999999</v>
       </c>
     </row>
@@ -2925,17 +2999,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA25" t="n">
-        <v/>
-      </c>
-      <c r="AB25" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB25" t="n">
+        <v/>
+      </c>
+      <c r="AC25" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
         <v>0.8514</v>
       </c>
     </row>
@@ -3023,17 +3100,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA26" t="n">
-        <v/>
-      </c>
-      <c r="AB26" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB26" t="n">
+        <v/>
+      </c>
+      <c r="AC26" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AE26" t="n">
         <v>0.8285</v>
       </c>
     </row>
@@ -3121,17 +3201,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA27" t="n">
-        <v/>
-      </c>
-      <c r="AB27" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB27" t="n">
+        <v/>
+      </c>
+      <c r="AC27" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AE27" t="n">
         <v>0.8463000000000001</v>
       </c>
     </row>
@@ -3219,17 +3302,20 @@
         <v>0.2205</v>
       </c>
       <c r="AA28" t="n">
-        <v/>
-      </c>
-      <c r="AB28" t="inlineStr">
+        <v>0.1995</v>
+      </c>
+      <c r="AB28" t="n">
+        <v/>
+      </c>
+      <c r="AC28" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AE28" t="n">
         <v>0.8716</v>
       </c>
     </row>
@@ -3317,17 +3403,20 @@
         <v>0.22302</v>
       </c>
       <c r="AA29" t="n">
-        <v/>
-      </c>
-      <c r="AB29" t="inlineStr">
+        <v>0.20178</v>
+      </c>
+      <c r="AB29" t="n">
+        <v/>
+      </c>
+      <c r="AC29" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
         <v>0.22302</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AE29" t="n">
         <v>0.9641</v>
       </c>
     </row>
@@ -3415,17 +3504,20 @@
         <v>0.232701</v>
       </c>
       <c r="AA30" t="n">
-        <v/>
-      </c>
-      <c r="AB30" t="inlineStr">
+        <v>0.210539</v>
+      </c>
+      <c r="AB30" t="n">
+        <v/>
+      </c>
+      <c r="AC30" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
         <v>0.232701</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AE30" t="n">
         <v>0.9931</v>
       </c>
     </row>
@@ -3513,17 +3605,20 @@
         <v>0.2331</v>
       </c>
       <c r="AA31" t="n">
-        <v/>
-      </c>
-      <c r="AB31" t="inlineStr">
+        <v>0.2109</v>
+      </c>
+      <c r="AB31" t="n">
+        <v/>
+      </c>
+      <c r="AC31" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>0.2331</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AE31" t="n">
         <v>1.0067</v>
       </c>
     </row>
@@ -3611,17 +3706,20 @@
         <v>0.233184</v>
       </c>
       <c r="AA32" t="n">
-        <v/>
-      </c>
-      <c r="AB32" t="inlineStr">
+        <v>0.210976</v>
+      </c>
+      <c r="AB32" t="n">
+        <v/>
+      </c>
+      <c r="AC32" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC32" t="n">
+      <c r="AD32" t="n">
         <v>0.233184</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AE32" t="n">
         <v>0.9743000000000001</v>
       </c>
     </row>
@@ -3709,17 +3807,20 @@
         <v>0.233184</v>
       </c>
       <c r="AA33" t="n">
-        <v/>
-      </c>
-      <c r="AB33" t="inlineStr">
+        <v>0.210976</v>
+      </c>
+      <c r="AB33" t="n">
+        <v/>
+      </c>
+      <c r="AC33" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
         <v>0.233184</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AE33" t="n">
         <v>0.9724</v>
       </c>
     </row>
@@ -3807,17 +3908,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA34" t="n">
-        <v/>
-      </c>
-      <c r="AB34" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB34" t="n">
+        <v/>
+      </c>
+      <c r="AC34" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC34" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD34" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE34" t="n">
         <v>0.9966</v>
       </c>
     </row>
@@ -3905,17 +4009,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA35" t="n">
-        <v/>
-      </c>
-      <c r="AB35" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB35" t="n">
+        <v/>
+      </c>
+      <c r="AC35" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC35" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD35" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE35" t="n">
         <v>0.9464</v>
       </c>
     </row>
@@ -4003,17 +4110,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA36" t="n">
-        <v/>
-      </c>
-      <c r="AB36" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB36" t="n">
+        <v/>
+      </c>
+      <c r="AC36" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC36" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD36" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE36" t="n">
         <v>0.9228</v>
       </c>
     </row>
@@ -4101,17 +4211,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA37" t="n">
-        <v/>
-      </c>
-      <c r="AB37" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB37" t="n">
+        <v/>
+      </c>
+      <c r="AC37" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC37" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD37" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE37" t="n">
         <v>0.9016</v>
       </c>
     </row>
@@ -4199,17 +4312,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA38" t="n">
-        <v/>
-      </c>
-      <c r="AB38" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB38" t="n">
+        <v/>
+      </c>
+      <c r="AC38" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC38" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD38" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE38" t="n">
         <v>0.8904</v>
       </c>
     </row>
@@ -4297,17 +4413,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA39" t="n">
-        <v/>
-      </c>
-      <c r="AB39" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB39" t="n">
+        <v/>
+      </c>
+      <c r="AC39" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC39" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD39" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE39" t="n">
         <v>0.884</v>
       </c>
     </row>
@@ -4395,17 +4514,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA40" t="n">
-        <v/>
-      </c>
-      <c r="AB40" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB40" t="n">
+        <v/>
+      </c>
+      <c r="AC40" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC40" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD40" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE40" t="n">
         <v>0.9151</v>
       </c>
     </row>
@@ -4493,17 +4615,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA41" t="n">
-        <v/>
-      </c>
-      <c r="AB41" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB41" t="n">
+        <v/>
+      </c>
+      <c r="AC41" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC41" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD41" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE41" t="n">
         <v>0.9308</v>
       </c>
     </row>
@@ -4591,17 +4716,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA42" t="n">
-        <v/>
-      </c>
-      <c r="AB42" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB42" t="n">
+        <v/>
+      </c>
+      <c r="AC42" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC42" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD42" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE42" t="n">
         <v>0.9752999999999999</v>
       </c>
     </row>
@@ -4689,17 +4817,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA43" t="n">
-        <v/>
-      </c>
-      <c r="AB43" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB43" t="n">
+        <v/>
+      </c>
+      <c r="AC43" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC43" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD43" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE43" t="n">
         <v>0.9242</v>
       </c>
     </row>
@@ -4787,17 +4918,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA44" t="n">
-        <v/>
-      </c>
-      <c r="AB44" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB44" t="n">
+        <v/>
+      </c>
+      <c r="AC44" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC44" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD44" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE44" t="n">
         <v>0.9272</v>
       </c>
     </row>
@@ -4885,17 +5019,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA45" t="n">
-        <v/>
-      </c>
-      <c r="AB45" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB45" t="n">
+        <v/>
+      </c>
+      <c r="AC45" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC45" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD45" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE45" t="n">
         <v>0.9036</v>
       </c>
     </row>
@@ -4983,17 +5120,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA46" t="n">
-        <v/>
-      </c>
-      <c r="AB46" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB46" t="n">
+        <v/>
+      </c>
+      <c r="AC46" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC46" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD46" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE46" t="n">
         <v>0.9296</v>
       </c>
     </row>
@@ -5081,17 +5221,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA47" t="n">
-        <v/>
-      </c>
-      <c r="AB47" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB47" t="n">
+        <v/>
+      </c>
+      <c r="AC47" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC47" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD47" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE47" t="n">
         <v>0.9153</v>
       </c>
     </row>
@@ -5179,17 +5322,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA48" t="n">
-        <v/>
-      </c>
-      <c r="AB48" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB48" t="n">
+        <v/>
+      </c>
+      <c r="AC48" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC48" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD48" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE48" t="n">
         <v>0.9079</v>
       </c>
     </row>
@@ -5277,17 +5423,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA49" t="n">
-        <v/>
-      </c>
-      <c r="AB49" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB49" t="n">
+        <v/>
+      </c>
+      <c r="AC49" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC49" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD49" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE49" t="n">
         <v>0.8947000000000001</v>
       </c>
     </row>
@@ -5375,17 +5524,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA50" t="n">
-        <v/>
-      </c>
-      <c r="AB50" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB50" t="n">
+        <v/>
+      </c>
+      <c r="AC50" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC50" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD50" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE50" t="n">
         <v>0.8073</v>
       </c>
     </row>
@@ -5473,17 +5625,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA51" t="n">
-        <v/>
-      </c>
-      <c r="AB51" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB51" t="n">
+        <v/>
+      </c>
+      <c r="AC51" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC51" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD51" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE51" t="n">
         <v>0.7835</v>
       </c>
     </row>
@@ -5571,17 +5726,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA52" t="n">
-        <v/>
-      </c>
-      <c r="AB52" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB52" t="n">
+        <v/>
+      </c>
+      <c r="AC52" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC52" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD52" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE52" t="n">
         <v>0.8069</v>
       </c>
     </row>
@@ -5669,17 +5827,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA53" t="n">
-        <v/>
-      </c>
-      <c r="AB53" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB53" t="n">
+        <v/>
+      </c>
+      <c r="AC53" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC53" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD53" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE53" t="n">
         <v>0.8183</v>
       </c>
     </row>
@@ -5767,17 +5928,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA54" t="n">
-        <v/>
-      </c>
-      <c r="AB54" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB54" t="n">
+        <v/>
+      </c>
+      <c r="AC54" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC54" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD54" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE54" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -5865,17 +6029,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA55" t="n">
-        <v/>
-      </c>
-      <c r="AB55" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB55" t="n">
+        <v/>
+      </c>
+      <c r="AC55" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC55" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD55" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE55" t="n">
         <v>0.8250999999999999</v>
       </c>
     </row>
@@ -5963,17 +6130,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA56" t="n">
-        <v/>
-      </c>
-      <c r="AB56" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB56" t="n">
+        <v/>
+      </c>
+      <c r="AC56" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC56" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD56" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE56" t="n">
         <v>0.7577</v>
       </c>
     </row>
@@ -6061,17 +6231,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA57" t="n">
-        <v/>
-      </c>
-      <c r="AB57" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB57" t="n">
+        <v/>
+      </c>
+      <c r="AC57" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC57" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD57" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE57" t="n">
         <v>0.7679</v>
       </c>
     </row>
@@ -6159,17 +6332,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA58" t="n">
-        <v/>
-      </c>
-      <c r="AB58" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB58" t="n">
+        <v/>
+      </c>
+      <c r="AC58" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC58" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD58" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE58" t="n">
         <v>0.8017</v>
       </c>
     </row>
@@ -6257,17 +6433,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA59" t="n">
-        <v/>
-      </c>
-      <c r="AB59" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB59" t="n">
+        <v/>
+      </c>
+      <c r="AC59" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC59" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD59" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE59" t="n">
         <v>0.8179999999999999</v>
       </c>
     </row>
@@ -6355,17 +6534,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA60" t="n">
-        <v/>
-      </c>
-      <c r="AB60" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB60" t="n">
+        <v/>
+      </c>
+      <c r="AC60" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC60" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD60" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE60" t="n">
         <v>0.8184</v>
       </c>
     </row>
@@ -6453,17 +6635,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA61" t="n">
-        <v/>
-      </c>
-      <c r="AB61" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB61" t="n">
+        <v/>
+      </c>
+      <c r="AC61" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC61" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD61" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE61" t="n">
         <v>0.8579</v>
       </c>
     </row>
@@ -6551,17 +6736,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA62" t="n">
-        <v/>
-      </c>
-      <c r="AB62" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB62" t="n">
+        <v/>
+      </c>
+      <c r="AC62" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC62" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD62" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE62" t="n">
         <v>0.8542999999999999</v>
       </c>
     </row>
@@ -6649,17 +6837,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA63" t="n">
-        <v/>
-      </c>
-      <c r="AB63" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB63" t="n">
+        <v/>
+      </c>
+      <c r="AC63" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC63" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD63" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE63" t="n">
         <v>0.8061</v>
       </c>
     </row>
@@ -6747,17 +6938,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA64" t="n">
-        <v/>
-      </c>
-      <c r="AB64" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB64" t="n">
+        <v/>
+      </c>
+      <c r="AC64" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC64" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD64" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE64" t="n">
         <v>0.7508</v>
       </c>
     </row>
@@ -6845,17 +7039,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA65" t="n">
-        <v/>
-      </c>
-      <c r="AB65" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB65" t="n">
+        <v/>
+      </c>
+      <c r="AC65" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC65" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD65" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE65" t="n">
         <v>0.7684</v>
       </c>
     </row>
@@ -6943,17 +7140,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA66" t="n">
-        <v/>
-      </c>
-      <c r="AB66" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB66" t="n">
+        <v/>
+      </c>
+      <c r="AC66" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC66" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD66" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE66" t="n">
         <v>0.7748</v>
       </c>
     </row>
@@ -7041,17 +7241,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA67" t="n">
-        <v/>
-      </c>
-      <c r="AB67" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB67" t="n">
+        <v/>
+      </c>
+      <c r="AC67" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC67" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD67" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE67" t="n">
         <v>0.7856</v>
       </c>
     </row>
@@ -7139,17 +7342,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA68" t="n">
-        <v/>
-      </c>
-      <c r="AB68" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB68" t="n">
+        <v/>
+      </c>
+      <c r="AC68" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC68" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD68" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE68" t="n">
         <v>0.7272</v>
       </c>
     </row>
@@ -7237,17 +7443,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA69" t="n">
-        <v/>
-      </c>
-      <c r="AB69" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB69" t="n">
+        <v/>
+      </c>
+      <c r="AC69" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC69" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD69" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE69" t="n">
         <v>0.7201</v>
       </c>
     </row>
@@ -7335,17 +7544,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA70" t="n">
-        <v/>
-      </c>
-      <c r="AB70" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB70" t="n">
+        <v/>
+      </c>
+      <c r="AC70" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC70" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD70" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE70" t="n">
         <v>0.7578</v>
       </c>
     </row>
@@ -7433,17 +7645,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA71" t="n">
-        <v/>
-      </c>
-      <c r="AB71" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB71" t="n">
+        <v/>
+      </c>
+      <c r="AC71" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC71" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD71" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE71" t="n">
         <v>0.7216</v>
       </c>
     </row>
@@ -7531,17 +7746,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA72" t="n">
-        <v/>
-      </c>
-      <c r="AB72" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB72" t="n">
+        <v/>
+      </c>
+      <c r="AC72" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC72" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD72" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE72" t="n">
         <v>0.6751</v>
       </c>
     </row>
@@ -7635,17 +7853,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA73" t="n">
-        <v/>
-      </c>
-      <c r="AB73" t="inlineStr">
+        <v>0.21736</v>
+      </c>
+      <c r="AB73" t="n">
+        <v/>
+      </c>
+      <c r="AC73" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC73" t="n">
+      <c r="AD73" t="n">
         <v>0.64064</v>
       </c>
-      <c r="AD73" t="n">
+      <c r="AE73" t="n">
         <v>0.6214</v>
       </c>
     </row>
@@ -7737,15 +7958,18 @@
         <v>0.24024</v>
       </c>
       <c r="AA74" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB74" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB74" t="n">
-        <v/>
-      </c>
       <c r="AC74" t="n">
         <v/>
       </c>
       <c r="AD74" t="n">
+        <v/>
+      </c>
+      <c r="AE74" t="n">
         <v/>
       </c>
     </row>
@@ -7833,17 +8057,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA75" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB75" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB75" t="inlineStr">
+      <c r="AC75" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC75" t="n">
+      <c r="AD75" t="n">
         <v>0.64064</v>
       </c>
-      <c r="AD75" t="n">
+      <c r="AE75" t="n">
         <v>0.6214</v>
       </c>
     </row>
@@ -7931,17 +8158,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA76" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB76" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB76" t="inlineStr">
+      <c r="AC76" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC76" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD76" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE76" t="n">
         <v>0.6504</v>
       </c>
     </row>
@@ -8029,17 +8259,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA77" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB77" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB77" t="inlineStr">
+      <c r="AC77" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC77" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD77" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE77" t="n">
         <v>0.7456</v>
       </c>
     </row>
@@ -8127,17 +8360,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA78" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB78" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB78" t="inlineStr">
+      <c r="AC78" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC78" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD78" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE78" t="n">
         <v>0.7529</v>
       </c>
     </row>
@@ -8225,17 +8461,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA79" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB79" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB79" t="inlineStr">
+      <c r="AC79" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC79" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD79" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE79" t="n">
         <v>0.7297</v>
       </c>
     </row>
@@ -8323,17 +8562,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA80" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB80" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB80" t="inlineStr">
+      <c r="AC80" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC80" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD80" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE80" t="n">
         <v>0.7221</v>
       </c>
     </row>
@@ -8421,17 +8663,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA81" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB81" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB81" t="inlineStr">
+      <c r="AC81" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC81" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD81" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE81" t="n">
         <v>0.7422</v>
       </c>
     </row>
@@ -8519,17 +8764,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA82" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB82" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB82" t="inlineStr">
+      <c r="AC82" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC82" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD82" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE82" t="n">
         <v>0.7561</v>
       </c>
     </row>
@@ -8617,17 +8865,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA83" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB83" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB83" t="inlineStr">
+      <c r="AC83" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC83" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD83" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE83" t="n">
         <v>0.7524</v>
       </c>
     </row>
@@ -8715,17 +8966,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA84" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB84" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB84" t="inlineStr">
+      <c r="AC84" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC84" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD84" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE84" t="n">
         <v>0.7334000000000001</v>
       </c>
     </row>
@@ -8813,17 +9067,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA85" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB85" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB85" t="inlineStr">
+      <c r="AC85" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC85" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD85" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE85" t="n">
         <v>0.7339</v>
       </c>
     </row>
@@ -8911,17 +9168,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA86" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB86" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB86" t="inlineStr">
+      <c r="AC86" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC86" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD86" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE86" t="n">
         <v>0.7792</v>
       </c>
     </row>
@@ -9009,17 +9269,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA87" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB87" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB87" t="inlineStr">
+      <c r="AC87" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC87" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD87" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE87" t="n">
         <v>0.7627</v>
       </c>
     </row>
@@ -9107,17 +9370,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA88" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB88" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB88" t="inlineStr">
+      <c r="AC88" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC88" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD88" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE88" t="n">
         <v>0.7662</v>
       </c>
     </row>
@@ -9205,17 +9471,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA89" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB89" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB89" t="inlineStr">
+      <c r="AC89" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC89" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD89" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE89" t="n">
         <v>0.7724</v>
       </c>
     </row>
@@ -9303,17 +9572,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA90" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB90" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB90" t="inlineStr">
+      <c r="AC90" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC90" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD90" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE90" t="n">
         <v>0.7681</v>
       </c>
     </row>
@@ -9401,17 +9673,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA91" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB91" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB91" t="inlineStr">
+      <c r="AC91" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC91" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD91" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE91" t="n">
         <v>0.7695</v>
       </c>
     </row>
@@ -9499,17 +9774,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA92" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB92" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB92" t="inlineStr">
+      <c r="AC92" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC92" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD92" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE92" t="n">
         <v>0.7921</v>
       </c>
     </row>
@@ -9597,17 +9875,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA93" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB93" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB93" t="inlineStr">
+      <c r="AC93" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC93" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD93" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE93" t="n">
         <v>0.8265</v>
       </c>
     </row>
@@ -9695,17 +9976,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA94" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB94" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB94" t="inlineStr">
+      <c r="AC94" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC94" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD94" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE94" t="n">
         <v>0.869</v>
       </c>
     </row>
@@ -9793,17 +10077,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA95" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB95" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB95" t="inlineStr">
+      <c r="AC95" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC95" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD95" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE95" t="n">
         <v>0.8522</v>
       </c>
     </row>
@@ -9891,17 +10178,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA96" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB96" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB96" t="inlineStr">
+      <c r="AC96" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC96" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD96" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE96" t="n">
         <v>0.8707</v>
       </c>
     </row>
@@ -9989,17 +10279,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA97" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB97" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB97" t="inlineStr">
+      <c r="AC97" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC97" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD97" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE97" t="n">
         <v>0.8885</v>
       </c>
     </row>
@@ -10087,17 +10380,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA98" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB98" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB98" t="inlineStr">
+      <c r="AC98" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC98" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD98" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE98" t="n">
         <v>0.8802</v>
       </c>
     </row>
@@ -10185,17 +10481,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA99" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB99" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB99" t="inlineStr">
+      <c r="AC99" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC99" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD99" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE99" t="n">
         <v>0.9237</v>
       </c>
     </row>
@@ -10283,17 +10582,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA100" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB100" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB100" t="inlineStr">
+      <c r="AC100" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC100" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD100" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE100" t="n">
         <v>0.9308</v>
       </c>
     </row>
@@ -10381,17 +10683,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA101" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB101" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB101" t="inlineStr">
+      <c r="AC101" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC101" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD101" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE101" t="n">
         <v>0.9832</v>
       </c>
     </row>
@@ -10479,17 +10784,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA102" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB102" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB102" t="inlineStr">
+      <c r="AC102" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC102" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD102" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE102" t="n">
         <v>0.989</v>
       </c>
     </row>
@@ -10577,17 +10885,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA103" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB103" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB103" t="inlineStr">
+      <c r="AC103" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC103" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD103" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE103" t="n">
         <v>1.0207</v>
       </c>
     </row>
@@ -10675,17 +10986,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA104" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB104" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB104" t="inlineStr">
+      <c r="AC104" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC104" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD104" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE104" t="n">
         <v>1.0243</v>
       </c>
     </row>
@@ -10773,17 +11087,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA105" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB105" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB105" t="inlineStr">
+      <c r="AC105" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC105" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD105" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE105" t="n">
         <v>1.0201</v>
       </c>
     </row>
@@ -10871,17 +11188,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA106" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB106" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB106" t="inlineStr">
+      <c r="AC106" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC106" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD106" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE106" t="n">
         <v>0.9876</v>
       </c>
     </row>
@@ -10969,17 +11289,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA107" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB107" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB107" t="inlineStr">
+      <c r="AC107" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC107" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD107" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE107" t="n">
         <v>0.9492</v>
       </c>
     </row>
@@ -11067,17 +11390,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA108" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB108" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB108" t="inlineStr">
+      <c r="AC108" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC108" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD108" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE108" t="n">
         <v>0.9795</v>
       </c>
     </row>
@@ -11165,17 +11491,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA109" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB109" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB109" t="inlineStr">
+      <c r="AC109" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC109" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD109" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE109" t="n">
         <v>1.0315</v>
       </c>
     </row>
@@ -11263,17 +11592,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA110" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB110" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB110" t="inlineStr">
+      <c r="AC110" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC110" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD110" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE110" t="n">
         <v>1.0363</v>
       </c>
     </row>
@@ -11361,17 +11693,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA111" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB111" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB111" t="inlineStr">
+      <c r="AC111" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC111" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD111" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE111" t="n">
         <v>0.985</v>
       </c>
     </row>
@@ -11459,17 +11794,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA112" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB112" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB112" t="inlineStr">
+      <c r="AC112" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC112" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD112" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE112" t="n">
         <v>0.9347</v>
       </c>
     </row>
@@ -11557,17 +11895,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA113" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB113" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB113" t="inlineStr">
+      <c r="AC113" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC113" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD113" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE113" t="n">
         <v>0.9014</v>
       </c>
     </row>
@@ -11655,17 +11996,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA114" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB114" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB114" t="inlineStr">
+      <c r="AC114" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC114" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD114" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE114" t="n">
         <v>0.915</v>
       </c>
     </row>
@@ -11753,17 +12097,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA115" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB115" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB115" t="inlineStr">
+      <c r="AC115" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC115" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD115" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE115" t="n">
         <v>0.8666</v>
       </c>
     </row>
@@ -11851,17 +12198,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA116" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB116" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB116" t="inlineStr">
+      <c r="AC116" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC116" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD116" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE116" t="n">
         <v>0.8443000000000001</v>
       </c>
     </row>
@@ -11949,17 +12299,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA117" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB117" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB117" t="inlineStr">
+      <c r="AC117" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC117" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD117" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE117" t="n">
         <v>0.8585</v>
       </c>
     </row>
@@ -12047,17 +12400,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA118" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB118" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB118" t="inlineStr">
+      <c r="AC118" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC118" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD118" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE118" t="n">
         <v>0.9166</v>
       </c>
     </row>
@@ -12145,17 +12501,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA119" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB119" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB119" t="inlineStr">
+      <c r="AC119" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC119" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD119" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE119" t="n">
         <v>0.9024</v>
       </c>
     </row>
@@ -12243,17 +12602,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA120" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB120" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB120" t="inlineStr">
+      <c r="AC120" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC120" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD120" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE120" t="n">
         <v>0.8991</v>
       </c>
     </row>
@@ -12341,17 +12703,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA121" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB121" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB121" t="inlineStr">
+      <c r="AC121" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC121" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD121" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE121" t="n">
         <v>0.9305</v>
       </c>
     </row>
@@ -12439,17 +12804,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA122" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB122" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB122" t="inlineStr">
+      <c r="AC122" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC122" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD122" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE122" t="n">
         <v>0.9994</v>
       </c>
     </row>
@@ -12537,17 +12905,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA123" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB123" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB123" t="inlineStr">
+      <c r="AC123" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC123" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD123" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE123" t="n">
         <v>1.0148</v>
       </c>
     </row>
@@ -12635,17 +13006,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA124" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB124" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB124" t="inlineStr">
+      <c r="AC124" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC124" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD124" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE124" t="n">
         <v>0.9984</v>
       </c>
     </row>
@@ -12733,17 +13107,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA125" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB125" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB125" t="inlineStr">
+      <c r="AC125" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC125" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD125" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE125" t="n">
         <v>0.9757</v>
       </c>
     </row>
@@ -12831,17 +13208,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA126" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB126" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB126" t="inlineStr">
+      <c r="AC126" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC126" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD126" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE126" t="n">
         <v>0.9689</v>
       </c>
     </row>
@@ -12929,17 +13309,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA127" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB127" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB127" t="inlineStr">
+      <c r="AC127" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC127" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD127" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE127" t="n">
         <v>1.0446</v>
       </c>
     </row>
@@ -13027,17 +13410,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA128" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB128" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB128" t="inlineStr">
+      <c r="AC128" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC128" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD128" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE128" t="n">
         <v>0.9777</v>
       </c>
     </row>
@@ -13125,17 +13511,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA129" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB129" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB129" t="inlineStr">
+      <c r="AC129" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC129" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD129" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE129" t="n">
         <v>0.96</v>
       </c>
     </row>
@@ -13223,17 +13612,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA130" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB130" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB130" t="inlineStr">
+      <c r="AC130" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC130" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD130" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE130" t="n">
         <v>0.9767</v>
       </c>
     </row>
@@ -13321,17 +13713,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA131" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB131" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB131" t="inlineStr">
+      <c r="AC131" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC131" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD131" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE131" t="n">
         <v>0.9952</v>
       </c>
     </row>
@@ -13419,17 +13814,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA132" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB132" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB132" t="inlineStr">
+      <c r="AC132" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC132" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD132" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE132" t="n">
         <v>0.9412</v>
       </c>
     </row>
@@ -13517,17 +13915,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA133" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB133" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB133" t="inlineStr">
+      <c r="AC133" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC133" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD133" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE133" t="n">
         <v>0.9067</v>
       </c>
     </row>
@@ -13615,17 +14016,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA134" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB134" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB134" t="inlineStr">
+      <c r="AC134" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC134" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD134" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE134" t="n">
         <v>0.9033</v>
       </c>
     </row>
@@ -13713,17 +14117,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA135" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB135" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB135" t="inlineStr">
+      <c r="AC135" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC135" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD135" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE135" t="n">
         <v>0.9114</v>
       </c>
     </row>
@@ -13811,17 +14218,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA136" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB136" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB136" t="inlineStr">
+      <c r="AC136" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC136" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD136" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE136" t="n">
         <v>0.891</v>
       </c>
     </row>
@@ -13909,17 +14319,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA137" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB137" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB137" t="inlineStr">
+      <c r="AC137" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC137" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD137" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE137" t="n">
         <v>0.9771</v>
       </c>
     </row>
@@ -14007,17 +14420,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA138" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB138" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB138" t="inlineStr">
+      <c r="AC138" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC138" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD138" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE138" t="n">
         <v>0.9565</v>
       </c>
     </row>
@@ -14105,17 +14521,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA139" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB139" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB139" t="inlineStr">
+      <c r="AC139" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC139" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD139" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE139" t="n">
         <v>0.8764</v>
       </c>
     </row>
@@ -14203,17 +14622,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA140" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB140" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB140" t="inlineStr">
+      <c r="AC140" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC140" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD140" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE140" t="n">
         <v>0.8854</v>
       </c>
     </row>
@@ -14301,17 +14723,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA141" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB141" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB141" t="inlineStr">
+      <c r="AC141" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC141" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD141" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE141" t="n">
         <v>0.925</v>
       </c>
     </row>
@@ -14399,17 +14824,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA142" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB142" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB142" t="inlineStr">
+      <c r="AC142" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC142" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD142" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE142" t="n">
         <v>0.9198</v>
       </c>
     </row>
@@ -14497,17 +14925,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA143" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB143" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB143" t="inlineStr">
+      <c r="AC143" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC143" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD143" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE143" t="n">
         <v>0.8909</v>
       </c>
     </row>
@@ -14595,17 +15026,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA144" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB144" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB144" t="inlineStr">
+      <c r="AC144" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC144" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD144" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE144" t="n">
         <v>0.8933</v>
       </c>
     </row>
@@ -14693,17 +15127,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA145" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB145" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB145" t="inlineStr">
+      <c r="AC145" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC145" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD145" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE145" t="n">
         <v>0.8964</v>
       </c>
     </row>
@@ -14791,17 +15228,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA146" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB146" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB146" t="inlineStr">
+      <c r="AC146" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC146" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD146" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE146" t="n">
         <v>0.859</v>
       </c>
     </row>
@@ -14889,17 +15329,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA147" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB147" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB147" t="inlineStr">
+      <c r="AC147" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC147" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD147" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE147" t="n">
         <v>0.8761</v>
       </c>
     </row>
@@ -14987,17 +15430,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA148" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB148" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB148" t="inlineStr">
+      <c r="AC148" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC148" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD148" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE148" t="n">
         <v>0.9385</v>
       </c>
     </row>
@@ -15085,17 +15531,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA149" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB149" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB149" t="inlineStr">
+      <c r="AC149" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC149" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD149" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE149" t="n">
         <v>0.9038</v>
       </c>
     </row>
@@ -15183,17 +15632,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA150" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB150" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB150" t="inlineStr">
+      <c r="AC150" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC150" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD150" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE150" t="n">
         <v>0.9054</v>
       </c>
     </row>
@@ -15281,17 +15733,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA151" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB151" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB151" t="inlineStr">
+      <c r="AC151" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC151" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD151" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE151" t="n">
         <v>0.8961</v>
       </c>
     </row>
@@ -15379,17 +15834,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA152" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB152" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB152" t="inlineStr">
+      <c r="AC152" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC152" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD152" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE152" t="n">
         <v>0.8998</v>
       </c>
     </row>
@@ -15477,17 +15935,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA153" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB153" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB153" t="inlineStr">
+      <c r="AC153" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC153" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD153" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE153" t="n">
         <v>0.9045</v>
       </c>
     </row>
@@ -15575,17 +16036,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA154" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB154" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB154" t="inlineStr">
+      <c r="AC154" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC154" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD154" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE154" t="n">
         <v>0.9237</v>
       </c>
     </row>
@@ -15673,17 +16137,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA155" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB155" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB155" t="inlineStr">
+      <c r="AC155" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC155" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD155" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE155" t="n">
         <v>0.9535</v>
       </c>
     </row>
@@ -15771,17 +16238,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA156" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB156" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB156" t="inlineStr">
+      <c r="AC156" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC156" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD156" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE156" t="n">
         <v>0.9983</v>
       </c>
     </row>
@@ -15869,17 +16339,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA157" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB157" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB157" t="inlineStr">
+      <c r="AC157" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC157" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD157" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE157" t="n">
         <v>1.0659</v>
       </c>
     </row>
@@ -15967,17 +16440,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA158" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB158" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB158" t="inlineStr">
+      <c r="AC158" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC158" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD158" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE158" t="n">
         <v>1.0664</v>
       </c>
     </row>
@@ -16065,17 +16541,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA159" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB159" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB159" t="inlineStr">
+      <c r="AC159" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC159" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD159" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE159" t="n">
         <v>1.0318</v>
       </c>
     </row>
@@ -16163,17 +16642,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA160" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB160" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB160" t="inlineStr">
+      <c r="AC160" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC160" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD160" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE160" t="n">
         <v>1.0076</v>
       </c>
     </row>
@@ -16261,17 +16743,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA161" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB161" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB161" t="inlineStr">
+      <c r="AC161" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC161" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD161" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE161" t="n">
         <v>1.0076</v>
       </c>
     </row>
@@ -16359,17 +16844,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA162" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB162" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB162" t="inlineStr">
+      <c r="AC162" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC162" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD162" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE162" t="n">
         <v>1.0009</v>
       </c>
     </row>
@@ -16457,17 +16945,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA163" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB163" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB163" t="inlineStr">
+      <c r="AC163" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC163" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD163" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE163" t="n">
         <v>1.0426</v>
       </c>
     </row>
@@ -16555,17 +17046,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA164" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB164" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB164" t="inlineStr">
+      <c r="AC164" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC164" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD164" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE164" t="n">
         <v>1.0123</v>
       </c>
     </row>
@@ -16653,17 +17147,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA165" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB165" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB165" t="inlineStr">
+      <c r="AC165" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC165" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD165" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE165" t="n">
         <v>1.0107</v>
       </c>
     </row>
@@ -16751,17 +17248,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA166" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB166" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB166" t="inlineStr">
+      <c r="AC166" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC166" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD166" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE166" t="n">
         <v>0.989</v>
       </c>
     </row>
@@ -16849,17 +17349,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA167" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB167" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB167" t="inlineStr">
+      <c r="AC167" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC167" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD167" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE167" t="n">
         <v>0.8895999999999999</v>
       </c>
     </row>
@@ -16947,17 +17450,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA168" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB168" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB168" t="inlineStr">
+      <c r="AC168" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC168" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD168" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE168" t="n">
         <v>0.9147</v>
       </c>
     </row>
@@ -17045,17 +17551,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA169" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB169" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB169" t="inlineStr">
+      <c r="AC169" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC169" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD169" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE169" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -17143,17 +17652,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA170" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB170" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB170" t="inlineStr">
+      <c r="AC170" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC170" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD170" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE170" t="n">
         <v>0.8574000000000001</v>
       </c>
     </row>
@@ -17241,17 +17753,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA171" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB171" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB171" t="inlineStr">
+      <c r="AC171" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC171" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD171" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE171" t="n">
         <v>0.8592</v>
       </c>
     </row>
@@ -17339,17 +17854,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA172" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB172" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB172" t="inlineStr">
+      <c r="AC172" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC172" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD172" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE172" t="n">
         <v>0.8782</v>
       </c>
     </row>
@@ -17437,17 +17955,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA173" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB173" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB173" t="inlineStr">
+      <c r="AC173" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC173" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD173" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE173" t="n">
         <v>0.8646</v>
       </c>
     </row>
@@ -17535,17 +18056,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA174" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB174" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB174" t="inlineStr">
+      <c r="AC174" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC174" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD174" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE174" t="n">
         <v>0.872</v>
       </c>
     </row>
@@ -17633,17 +18157,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA175" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB175" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB175" t="inlineStr">
+      <c r="AC175" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC175" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD175" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE175" t="n">
         <v>0.862</v>
       </c>
     </row>
@@ -17731,17 +18258,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA176" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB176" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB176" t="inlineStr">
+      <c r="AC176" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC176" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD176" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE176" t="n">
         <v>0.8764</v>
       </c>
     </row>
@@ -17829,17 +18359,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA177" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB177" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB177" t="inlineStr">
+      <c r="AC177" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC177" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD177" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE177" t="n">
         <v>0.9251</v>
       </c>
     </row>
@@ -17927,17 +18460,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA178" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB178" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB178" t="inlineStr">
+      <c r="AC178" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC178" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD178" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE178" t="n">
         <v>0.9378</v>
       </c>
     </row>
@@ -18025,17 +18561,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA179" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB179" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB179" t="inlineStr">
+      <c r="AC179" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC179" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD179" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE179" t="n">
         <v>0.907</v>
       </c>
     </row>
@@ -18123,17 +18662,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA180" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB180" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB180" t="inlineStr">
+      <c r="AC180" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC180" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD180" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE180" t="n">
         <v>0.9031</v>
       </c>
     </row>
@@ -18221,17 +18763,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA181" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB181" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB181" t="inlineStr">
+      <c r="AC181" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC181" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD181" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE181" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -18319,17 +18864,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA182" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB182" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB182" t="inlineStr">
+      <c r="AC182" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC182" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD182" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE182" t="n">
         <v>0.9023</v>
       </c>
     </row>
@@ -18417,17 +18965,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA183" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB183" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB183" t="inlineStr">
+      <c r="AC183" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC183" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD183" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE183" t="n">
         <v>0.8952</v>
       </c>
     </row>
@@ -18515,17 +19066,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA184" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB184" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB184" t="inlineStr">
+      <c r="AC184" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC184" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD184" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE184" t="n">
         <v>0.8839</v>
       </c>
     </row>
@@ -18613,17 +19167,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA185" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB185" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB185" t="inlineStr">
+      <c r="AC185" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC185" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD185" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE185" t="n">
         <v>0.6908</v>
       </c>
     </row>
@@ -18711,17 +19268,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA186" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB186" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB186" t="inlineStr">
+      <c r="AC186" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC186" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD186" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE186" t="n">
         <v>0.6815</v>
       </c>
     </row>
@@ -18809,17 +19369,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA187" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB187" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB187" t="inlineStr">
+      <c r="AC187" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC187" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD187" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE187" t="n">
         <v>0.6992</v>
       </c>
     </row>
@@ -18907,17 +19470,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA188" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB188" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB188" t="inlineStr">
+      <c r="AC188" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC188" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD188" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE188" t="n">
         <v>0.7904</v>
       </c>
     </row>
@@ -19005,17 +19571,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA189" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB189" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB189" t="inlineStr">
+      <c r="AC189" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC189" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD189" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE189" t="n">
         <v>0.7131</v>
       </c>
     </row>
@@ -19103,17 +19672,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA190" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB190" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB190" t="inlineStr">
+      <c r="AC190" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC190" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD190" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE190" t="n">
         <v>0.7511</v>
       </c>
     </row>
@@ -19201,17 +19773,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA191" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB191" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB191" t="inlineStr">
+      <c r="AC191" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC191" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD191" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE191" t="n">
         <v>0.7136</v>
       </c>
     </row>
@@ -19299,17 +19874,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA192" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB192" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB192" t="inlineStr">
+      <c r="AC192" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC192" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD192" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE192" t="n">
         <v>0.6651</v>
       </c>
     </row>
@@ -19397,17 +19975,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA193" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB193" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB193" t="inlineStr">
+      <c r="AC193" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC193" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD193" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE193" t="n">
         <v>0.7014</v>
       </c>
     </row>
@@ -19427,7 +20008,7 @@
         <v>0.7009</v>
       </c>
       <c r="E194" t="n">
-        <v>0.7251</v>
+        <v>0.7254</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -19495,17 +20076,20 @@
         <v>0.24024</v>
       </c>
       <c r="AA194" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB194" t="n">
         <v>0.6692477999999999</v>
       </c>
-      <c r="AB194" t="inlineStr">
+      <c r="AC194" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC194" t="n">
-        <v>0.24024</v>
-      </c>
       <c r="AD194" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE194" t="n">
         <v>0.7009</v>
       </c>
     </row>

--- a/debug/ONDO_debug.xlsx
+++ b/debug/ONDO_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE194"/>
+  <dimension ref="A1:AE201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20002,13 +20002,13 @@
         <v>0.7137</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7336</v>
+        <v>0.7477</v>
       </c>
       <c r="D194" t="n">
         <v>0.7009</v>
       </c>
       <c r="E194" t="n">
-        <v>0.7254</v>
+        <v>0.7316</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -20091,6 +20091,713 @@
       </c>
       <c r="AE194" t="n">
         <v>0.7009</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7315</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.7737000000000001</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.7141</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.7519</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v/>
+      </c>
+      <c r="I195" t="n">
+        <v/>
+      </c>
+      <c r="J195" t="n">
+        <v/>
+      </c>
+      <c r="K195" t="n">
+        <v/>
+      </c>
+      <c r="L195" t="n">
+        <v/>
+      </c>
+      <c r="M195" t="n">
+        <v/>
+      </c>
+      <c r="N195" t="n">
+        <v/>
+      </c>
+      <c r="O195" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="Q195" t="n">
+        <v/>
+      </c>
+      <c r="R195" t="n">
+        <v/>
+      </c>
+      <c r="S195" t="n">
+        <v>7</v>
+      </c>
+      <c r="T195" t="n">
+        <v>0.64064</v>
+      </c>
+      <c r="U195" t="n">
+        <v>0.59488</v>
+      </c>
+      <c r="V195" t="n">
+        <v>0.52624</v>
+      </c>
+      <c r="W195" t="n">
+        <v>0.46904</v>
+      </c>
+      <c r="X195" t="n">
+        <v>0.4004</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>0.32032</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>0.6692477999999999</v>
+      </c>
+      <c r="AC195" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD195" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>0.7141</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7519</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.7821</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.7183</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.7239</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v/>
+      </c>
+      <c r="I196" t="n">
+        <v/>
+      </c>
+      <c r="J196" t="n">
+        <v/>
+      </c>
+      <c r="K196" t="n">
+        <v/>
+      </c>
+      <c r="L196" t="n">
+        <v/>
+      </c>
+      <c r="M196" t="n">
+        <v/>
+      </c>
+      <c r="N196" t="n">
+        <v/>
+      </c>
+      <c r="O196" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="Q196" t="n">
+        <v/>
+      </c>
+      <c r="R196" t="n">
+        <v/>
+      </c>
+      <c r="S196" t="n">
+        <v>7</v>
+      </c>
+      <c r="T196" t="n">
+        <v>0.64064</v>
+      </c>
+      <c r="U196" t="n">
+        <v>0.59488</v>
+      </c>
+      <c r="V196" t="n">
+        <v>0.52624</v>
+      </c>
+      <c r="W196" t="n">
+        <v>0.46904</v>
+      </c>
+      <c r="X196" t="n">
+        <v>0.4004</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>0.32032</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>0.6692477999999999</v>
+      </c>
+      <c r="AC196" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD196" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>0.7183</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7239</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.7302</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.6837</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.7029</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v/>
+      </c>
+      <c r="I197" t="n">
+        <v/>
+      </c>
+      <c r="J197" t="n">
+        <v/>
+      </c>
+      <c r="K197" t="n">
+        <v/>
+      </c>
+      <c r="L197" t="n">
+        <v/>
+      </c>
+      <c r="M197" t="n">
+        <v/>
+      </c>
+      <c r="N197" t="n">
+        <v/>
+      </c>
+      <c r="O197" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="Q197" t="n">
+        <v/>
+      </c>
+      <c r="R197" t="n">
+        <v/>
+      </c>
+      <c r="S197" t="n">
+        <v>7</v>
+      </c>
+      <c r="T197" t="n">
+        <v>0.64064</v>
+      </c>
+      <c r="U197" t="n">
+        <v>0.59488</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0.52624</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0.46904</v>
+      </c>
+      <c r="X197" t="n">
+        <v>0.4004</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>0.32032</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>0.6692477999999999</v>
+      </c>
+      <c r="AC197" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD197" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>0.6837</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.7334000000000001</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.7013</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.7221</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v/>
+      </c>
+      <c r="I198" t="n">
+        <v/>
+      </c>
+      <c r="J198" t="n">
+        <v/>
+      </c>
+      <c r="K198" t="n">
+        <v/>
+      </c>
+      <c r="L198" t="n">
+        <v/>
+      </c>
+      <c r="M198" t="n">
+        <v/>
+      </c>
+      <c r="N198" t="n">
+        <v/>
+      </c>
+      <c r="O198" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="Q198" t="n">
+        <v/>
+      </c>
+      <c r="R198" t="n">
+        <v/>
+      </c>
+      <c r="S198" t="n">
+        <v>7</v>
+      </c>
+      <c r="T198" t="n">
+        <v>0.64064</v>
+      </c>
+      <c r="U198" t="n">
+        <v>0.59488</v>
+      </c>
+      <c r="V198" t="n">
+        <v>0.52624</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0.46904</v>
+      </c>
+      <c r="X198" t="n">
+        <v>0.4004</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>0.32032</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>0.6692477999999999</v>
+      </c>
+      <c r="AC198" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD198" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>0.7013</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7222</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.7544</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.7187</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.7443</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v/>
+      </c>
+      <c r="I199" t="n">
+        <v/>
+      </c>
+      <c r="J199" t="n">
+        <v/>
+      </c>
+      <c r="K199" t="n">
+        <v/>
+      </c>
+      <c r="L199" t="n">
+        <v/>
+      </c>
+      <c r="M199" t="n">
+        <v/>
+      </c>
+      <c r="N199" t="n">
+        <v/>
+      </c>
+      <c r="O199" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="Q199" t="n">
+        <v/>
+      </c>
+      <c r="R199" t="n">
+        <v/>
+      </c>
+      <c r="S199" t="n">
+        <v>7</v>
+      </c>
+      <c r="T199" t="n">
+        <v>0.64064</v>
+      </c>
+      <c r="U199" t="n">
+        <v>0.59488</v>
+      </c>
+      <c r="V199" t="n">
+        <v>0.52624</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0.46904</v>
+      </c>
+      <c r="X199" t="n">
+        <v>0.4004</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0.32032</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>0.6692477999999999</v>
+      </c>
+      <c r="AC199" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD199" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>0.7187</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7442</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.7446</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.7198</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.7342</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v/>
+      </c>
+      <c r="I200" t="n">
+        <v/>
+      </c>
+      <c r="J200" t="n">
+        <v/>
+      </c>
+      <c r="K200" t="n">
+        <v/>
+      </c>
+      <c r="L200" t="n">
+        <v/>
+      </c>
+      <c r="M200" t="n">
+        <v/>
+      </c>
+      <c r="N200" t="n">
+        <v/>
+      </c>
+      <c r="O200" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="Q200" t="n">
+        <v/>
+      </c>
+      <c r="R200" t="n">
+        <v/>
+      </c>
+      <c r="S200" t="n">
+        <v>7</v>
+      </c>
+      <c r="T200" t="n">
+        <v>0.64064</v>
+      </c>
+      <c r="U200" t="n">
+        <v>0.59488</v>
+      </c>
+      <c r="V200" t="n">
+        <v>0.52624</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0.46904</v>
+      </c>
+      <c r="X200" t="n">
+        <v>0.4004</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>0.32032</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>0.6692477999999999</v>
+      </c>
+      <c r="AC200" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD200" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>0.7198</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7341</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.7606000000000001</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.7225</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.7538</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v/>
+      </c>
+      <c r="I201" t="n">
+        <v/>
+      </c>
+      <c r="J201" t="n">
+        <v/>
+      </c>
+      <c r="K201" t="n">
+        <v/>
+      </c>
+      <c r="L201" t="n">
+        <v/>
+      </c>
+      <c r="M201" t="n">
+        <v/>
+      </c>
+      <c r="N201" t="n">
+        <v/>
+      </c>
+      <c r="O201" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="Q201" t="n">
+        <v/>
+      </c>
+      <c r="R201" t="n">
+        <v/>
+      </c>
+      <c r="S201" t="n">
+        <v>7</v>
+      </c>
+      <c r="T201" t="n">
+        <v>0.64064</v>
+      </c>
+      <c r="U201" t="n">
+        <v>0.59488</v>
+      </c>
+      <c r="V201" t="n">
+        <v>0.52624</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0.46904</v>
+      </c>
+      <c r="X201" t="n">
+        <v>0.4004</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>0.32032</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>0.21736</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>0.6692477999999999</v>
+      </c>
+      <c r="AC201" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD201" t="n">
+        <v>0.24024</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>0.7225</v>
       </c>
     </row>
   </sheetData>
